--- a/2022_Sync.xlsx
+++ b/2022_Sync.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6372DCC1-4AF7-4849-A69F-953E544AD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0706A-92FA-4044-B7DF-DD64EC65922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_Sync" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -974,11 +974,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1033,56 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>22025</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2022_Sync.xlsx
+++ b/2022_Sync.xlsx
@@ -8,15 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C0706A-92FA-4044-B7DF-DD64EC65922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A036F2-3D76-473D-B436-461156FA9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_Sync" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,116 +1012,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>22024</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="C1">
-        <v>8</v>
-      </c>
-      <c r="D1">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1">
-        <v>10</v>
-      </c>
-      <c r="F1">
-        <v>21</v>
-      </c>
-      <c r="G1">
-        <v>26</v>
-      </c>
-      <c r="H1">
-        <v>26</v>
-      </c>
-      <c r="I1">
-        <v>30</v>
-      </c>
-      <c r="J1">
-        <v>31</v>
-      </c>
-      <c r="K1">
-        <v>9</v>
-      </c>
-      <c r="L1">
-        <v>8</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>4</v>
-      </c>
-      <c r="O1">
-        <v>6</v>
-      </c>
-      <c r="P1">
-        <v>8</v>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22025</v>
+        <v>22024</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>26</v>
       </c>
       <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>22025</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I3" s="1">
         <v>32</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>29</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>13</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>6</v>
       </c>
-      <c r="O2">
+      <c r="O3">
         <v>8</v>
       </c>
-      <c r="P2">
+      <c r="P3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22026</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2022_Sync.xlsx
+++ b/2022_Sync.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A036F2-3D76-473D-B436-461156FA9A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F019716-3815-485B-8B24-C3F7E1DB8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_Sync" sheetId="1" r:id="rId1"/>
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
       <c r="F4">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>22</v>
       </c>
       <c r="H4">
@@ -1218,6 +1218,56 @@
       </c>
       <c r="P4">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>22027</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/2022_Sync.xlsx
+++ b/2022_Sync.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\dcb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F019716-3815-485B-8B24-C3F7E1DB8DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819DB27-9D28-410A-8ACE-0DC12069F966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1233,7 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5">
@@ -1254,7 +1254,7 @@
       <c r="K5">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>9</v>
       </c>
       <c r="M5">
